--- a/BackTest/2019-11-17 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-17 BackTest CTXC.xlsx
@@ -4689,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4794,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -23796,14 +23796,20 @@
         <v>178.6666666666667</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
       </c>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>174</v>
+      </c>
       <c r="K669" t="inlineStr"/>
-      <c r="L669" t="inlineStr"/>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M669" t="n">
         <v>1</v>
       </c>
@@ -23831,14 +23837,20 @@
         <v>178.6166666666667</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
       </c>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>174</v>
+      </c>
       <c r="K670" t="inlineStr"/>
-      <c r="L670" t="inlineStr"/>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M670" t="n">
         <v>1</v>
       </c>
@@ -23866,14 +23878,20 @@
         <v>178.5333333333333</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
       </c>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>176</v>
+      </c>
       <c r="K671" t="inlineStr"/>
-      <c r="L671" t="inlineStr"/>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M671" t="n">
         <v>1</v>
       </c>
@@ -23901,14 +23919,20 @@
         <v>178.4833333333333</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
       </c>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>174</v>
+      </c>
       <c r="K672" t="inlineStr"/>
-      <c r="L672" t="inlineStr"/>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M672" t="n">
         <v>1</v>
       </c>
@@ -23936,14 +23960,20 @@
         <v>178.45</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
       </c>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>176</v>
+      </c>
       <c r="K673" t="inlineStr"/>
-      <c r="L673" t="inlineStr"/>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M673" t="n">
         <v>1</v>
       </c>
@@ -23971,14 +24001,20 @@
         <v>178.3666666666667</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I674" t="n">
         <v>0</v>
       </c>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>176</v>
+      </c>
       <c r="K674" t="inlineStr"/>
-      <c r="L674" t="inlineStr"/>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M674" t="n">
         <v>1</v>
       </c>
@@ -24006,14 +24042,20 @@
         <v>178.2666666666667</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
       </c>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>174</v>
+      </c>
       <c r="K675" t="inlineStr"/>
-      <c r="L675" t="inlineStr"/>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M675" t="n">
         <v>1</v>
       </c>
@@ -24041,14 +24083,20 @@
         <v>178.1666666666667</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>0</v>
       </c>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>174</v>
+      </c>
       <c r="K676" t="inlineStr"/>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M676" t="n">
         <v>1</v>
       </c>
@@ -24076,14 +24124,20 @@
         <v>178.0666666666667</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
       </c>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>174</v>
+      </c>
       <c r="K677" t="inlineStr"/>
-      <c r="L677" t="inlineStr"/>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M677" t="n">
         <v>1</v>
       </c>
@@ -24111,14 +24165,20 @@
         <v>177.95</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I678" t="n">
         <v>0</v>
       </c>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>174</v>
+      </c>
       <c r="K678" t="inlineStr"/>
-      <c r="L678" t="inlineStr"/>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M678" t="n">
         <v>1</v>
       </c>
@@ -24146,14 +24206,20 @@
         <v>177.8333333333333</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
       </c>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>175</v>
+      </c>
       <c r="K679" t="inlineStr"/>
-      <c r="L679" t="inlineStr"/>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M679" t="n">
         <v>1</v>
       </c>
@@ -24188,7 +24254,11 @@
       </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr"/>
-      <c r="L680" t="inlineStr"/>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M680" t="n">
         <v>1</v>
       </c>
@@ -24223,7 +24293,11 @@
       </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr"/>
-      <c r="L681" t="inlineStr"/>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M681" t="n">
         <v>1</v>
       </c>
@@ -24258,7 +24332,11 @@
       </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr"/>
-      <c r="L682" t="inlineStr"/>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M682" t="n">
         <v>1</v>
       </c>
@@ -24293,7 +24371,11 @@
       </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr"/>
-      <c r="L683" t="inlineStr"/>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M683" t="n">
         <v>1</v>
       </c>
@@ -24328,7 +24410,11 @@
       </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr"/>
-      <c r="L684" t="inlineStr"/>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M684" t="n">
         <v>1</v>
       </c>
@@ -24363,7 +24449,11 @@
       </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr"/>
-      <c r="L685" t="inlineStr"/>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M685" t="n">
         <v>1</v>
       </c>
@@ -24398,7 +24488,11 @@
       </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr"/>
-      <c r="L686" t="inlineStr"/>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M686" t="n">
         <v>1</v>
       </c>
@@ -24433,7 +24527,11 @@
       </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr"/>
-      <c r="L687" t="inlineStr"/>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M687" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +24566,11 @@
       </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr"/>
-      <c r="L688" t="inlineStr"/>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M688" t="n">
         <v>1</v>
       </c>
@@ -24503,7 +24605,11 @@
       </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr"/>
-      <c r="L689" t="inlineStr"/>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M689" t="n">
         <v>1</v>
       </c>
@@ -24538,7 +24644,11 @@
       </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr"/>
-      <c r="L690" t="inlineStr"/>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M690" t="n">
         <v>1</v>
       </c>
@@ -24573,7 +24683,11 @@
       </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
-      <c r="L691" t="inlineStr"/>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M691" t="n">
         <v>1</v>
       </c>
@@ -24608,7 +24722,11 @@
       </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr"/>
-      <c r="L692" t="inlineStr"/>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M692" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +24761,11 @@
       </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr"/>
-      <c r="L693" t="inlineStr"/>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M693" t="n">
         <v>1</v>
       </c>
@@ -24678,7 +24800,11 @@
       </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr"/>
-      <c r="L694" t="inlineStr"/>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M694" t="n">
         <v>1</v>
       </c>
@@ -24713,7 +24839,11 @@
       </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr"/>
-      <c r="L695" t="inlineStr"/>
+      <c r="L695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M695" t="n">
         <v>1</v>
       </c>
@@ -24748,7 +24878,11 @@
       </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr"/>
-      <c r="L696" t="inlineStr"/>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M696" t="n">
         <v>1</v>
       </c>
@@ -24783,7 +24917,11 @@
       </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr"/>
-      <c r="L697" t="inlineStr"/>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M697" t="n">
         <v>1</v>
       </c>
@@ -24818,7 +24956,11 @@
       </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr"/>
-      <c r="L698" t="inlineStr"/>
+      <c r="L698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M698" t="n">
         <v>1</v>
       </c>
@@ -24853,7 +24995,11 @@
       </c>
       <c r="J699" t="inlineStr"/>
       <c r="K699" t="inlineStr"/>
-      <c r="L699" t="inlineStr"/>
+      <c r="L699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M699" t="n">
         <v>1</v>
       </c>
@@ -24888,7 +25034,11 @@
       </c>
       <c r="J700" t="inlineStr"/>
       <c r="K700" t="inlineStr"/>
-      <c r="L700" t="inlineStr"/>
+      <c r="L700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M700" t="n">
         <v>1</v>
       </c>
@@ -24923,7 +25073,11 @@
       </c>
       <c r="J701" t="inlineStr"/>
       <c r="K701" t="inlineStr"/>
-      <c r="L701" t="inlineStr"/>
+      <c r="L701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M701" t="n">
         <v>1</v>
       </c>
@@ -24958,7 +25112,11 @@
       </c>
       <c r="J702" t="inlineStr"/>
       <c r="K702" t="inlineStr"/>
-      <c r="L702" t="inlineStr"/>
+      <c r="L702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M702" t="n">
         <v>1</v>
       </c>
@@ -24993,7 +25151,11 @@
       </c>
       <c r="J703" t="inlineStr"/>
       <c r="K703" t="inlineStr"/>
-      <c r="L703" t="inlineStr"/>
+      <c r="L703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M703" t="n">
         <v>1</v>
       </c>
@@ -25028,7 +25190,11 @@
       </c>
       <c r="J704" t="inlineStr"/>
       <c r="K704" t="inlineStr"/>
-      <c r="L704" t="inlineStr"/>
+      <c r="L704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M704" t="n">
         <v>1</v>
       </c>
@@ -25063,7 +25229,11 @@
       </c>
       <c r="J705" t="inlineStr"/>
       <c r="K705" t="inlineStr"/>
-      <c r="L705" t="inlineStr"/>
+      <c r="L705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M705" t="n">
         <v>1</v>
       </c>
@@ -25098,7 +25268,11 @@
       </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr"/>
-      <c r="L706" t="inlineStr"/>
+      <c r="L706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M706" t="n">
         <v>1</v>
       </c>
@@ -25133,7 +25307,11 @@
       </c>
       <c r="J707" t="inlineStr"/>
       <c r="K707" t="inlineStr"/>
-      <c r="L707" t="inlineStr"/>
+      <c r="L707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M707" t="n">
         <v>1</v>
       </c>
@@ -25168,7 +25346,11 @@
       </c>
       <c r="J708" t="inlineStr"/>
       <c r="K708" t="inlineStr"/>
-      <c r="L708" t="inlineStr"/>
+      <c r="L708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M708" t="n">
         <v>1</v>
       </c>
@@ -25203,7 +25385,11 @@
       </c>
       <c r="J709" t="inlineStr"/>
       <c r="K709" t="inlineStr"/>
-      <c r="L709" t="inlineStr"/>
+      <c r="L709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M709" t="n">
         <v>1</v>
       </c>
@@ -25238,7 +25424,11 @@
       </c>
       <c r="J710" t="inlineStr"/>
       <c r="K710" t="inlineStr"/>
-      <c r="L710" t="inlineStr"/>
+      <c r="L710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M710" t="n">
         <v>1</v>
       </c>
@@ -25273,7 +25463,11 @@
       </c>
       <c r="J711" t="inlineStr"/>
       <c r="K711" t="inlineStr"/>
-      <c r="L711" t="inlineStr"/>
+      <c r="L711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M711" t="n">
         <v>1</v>
       </c>
@@ -25308,7 +25502,11 @@
       </c>
       <c r="J712" t="inlineStr"/>
       <c r="K712" t="inlineStr"/>
-      <c r="L712" t="inlineStr"/>
+      <c r="L712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M712" t="n">
         <v>1</v>
       </c>
@@ -25343,7 +25541,11 @@
       </c>
       <c r="J713" t="inlineStr"/>
       <c r="K713" t="inlineStr"/>
-      <c r="L713" t="inlineStr"/>
+      <c r="L713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M713" t="n">
         <v>1</v>
       </c>
@@ -25378,7 +25580,11 @@
       </c>
       <c r="J714" t="inlineStr"/>
       <c r="K714" t="inlineStr"/>
-      <c r="L714" t="inlineStr"/>
+      <c r="L714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M714" t="n">
         <v>1</v>
       </c>
@@ -25413,7 +25619,11 @@
       </c>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr"/>
-      <c r="L715" t="inlineStr"/>
+      <c r="L715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M715" t="n">
         <v>1</v>
       </c>
@@ -25448,7 +25658,11 @@
       </c>
       <c r="J716" t="inlineStr"/>
       <c r="K716" t="inlineStr"/>
-      <c r="L716" t="inlineStr"/>
+      <c r="L716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M716" t="n">
         <v>1</v>
       </c>
@@ -25483,7 +25697,11 @@
       </c>
       <c r="J717" t="inlineStr"/>
       <c r="K717" t="inlineStr"/>
-      <c r="L717" t="inlineStr"/>
+      <c r="L717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M717" t="n">
         <v>1</v>
       </c>
@@ -25518,7 +25736,11 @@
       </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr"/>
-      <c r="L718" t="inlineStr"/>
+      <c r="L718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M718" t="n">
         <v>1</v>
       </c>
@@ -25553,7 +25775,11 @@
       </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr"/>
-      <c r="L719" t="inlineStr"/>
+      <c r="L719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M719" t="n">
         <v>1</v>
       </c>
@@ -25588,7 +25814,11 @@
       </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr"/>
-      <c r="L720" t="inlineStr"/>
+      <c r="L720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M720" t="n">
         <v>1</v>
       </c>
@@ -25623,7 +25853,11 @@
       </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr"/>
-      <c r="L721" t="inlineStr"/>
+      <c r="L721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M721" t="n">
         <v>1</v>
       </c>
@@ -25658,7 +25892,11 @@
       </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr"/>
-      <c r="L722" t="inlineStr"/>
+      <c r="L722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M722" t="n">
         <v>1</v>
       </c>
@@ -25693,7 +25931,11 @@
       </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr"/>
-      <c r="L723" t="inlineStr"/>
+      <c r="L723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M723" t="n">
         <v>1</v>
       </c>
@@ -25728,7 +25970,11 @@
       </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr"/>
-      <c r="L724" t="inlineStr"/>
+      <c r="L724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M724" t="n">
         <v>1</v>
       </c>
@@ -25763,7 +26009,11 @@
       </c>
       <c r="J725" t="inlineStr"/>
       <c r="K725" t="inlineStr"/>
-      <c r="L725" t="inlineStr"/>
+      <c r="L725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M725" t="n">
         <v>1</v>
       </c>
@@ -25798,7 +26048,11 @@
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
-      <c r="L726" t="inlineStr"/>
+      <c r="L726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M726" t="n">
         <v>1</v>
       </c>
@@ -25833,7 +26087,11 @@
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
-      <c r="L727" t="inlineStr"/>
+      <c r="L727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M727" t="n">
         <v>1</v>
       </c>
@@ -25868,7 +26126,11 @@
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>
-      <c r="L728" t="inlineStr"/>
+      <c r="L728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M728" t="n">
         <v>1</v>
       </c>
@@ -25903,7 +26165,11 @@
       </c>
       <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
-      <c r="L729" t="inlineStr"/>
+      <c r="L729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M729" t="n">
         <v>1</v>
       </c>
@@ -25938,7 +26204,11 @@
       </c>
       <c r="J730" t="inlineStr"/>
       <c r="K730" t="inlineStr"/>
-      <c r="L730" t="inlineStr"/>
+      <c r="L730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M730" t="n">
         <v>1</v>
       </c>
@@ -25973,7 +26243,11 @@
       </c>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr"/>
-      <c r="L731" t="inlineStr"/>
+      <c r="L731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M731" t="n">
         <v>1</v>
       </c>
@@ -26008,7 +26282,11 @@
       </c>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr"/>
-      <c r="L732" t="inlineStr"/>
+      <c r="L732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M732" t="n">
         <v>1</v>
       </c>
@@ -26043,7 +26321,11 @@
       </c>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr"/>
-      <c r="L733" t="inlineStr"/>
+      <c r="L733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M733" t="n">
         <v>1</v>
       </c>
@@ -26078,7 +26360,11 @@
       </c>
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr"/>
-      <c r="L734" t="inlineStr"/>
+      <c r="L734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M734" t="n">
         <v>1</v>
       </c>
@@ -26113,7 +26399,11 @@
       </c>
       <c r="J735" t="inlineStr"/>
       <c r="K735" t="inlineStr"/>
-      <c r="L735" t="inlineStr"/>
+      <c r="L735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M735" t="n">
         <v>1</v>
       </c>
@@ -26148,7 +26438,11 @@
       </c>
       <c r="J736" t="inlineStr"/>
       <c r="K736" t="inlineStr"/>
-      <c r="L736" t="inlineStr"/>
+      <c r="L736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M736" t="n">
         <v>1</v>
       </c>
@@ -26183,7 +26477,11 @@
       </c>
       <c r="J737" t="inlineStr"/>
       <c r="K737" t="inlineStr"/>
-      <c r="L737" t="inlineStr"/>
+      <c r="L737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M737" t="n">
         <v>1</v>
       </c>
@@ -26218,7 +26516,11 @@
       </c>
       <c r="J738" t="inlineStr"/>
       <c r="K738" t="inlineStr"/>
-      <c r="L738" t="inlineStr"/>
+      <c r="L738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M738" t="n">
         <v>1</v>
       </c>
@@ -26253,7 +26555,11 @@
       </c>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr"/>
-      <c r="L739" t="inlineStr"/>
+      <c r="L739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M739" t="n">
         <v>1</v>
       </c>
@@ -26288,7 +26594,11 @@
       </c>
       <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr"/>
-      <c r="L740" t="inlineStr"/>
+      <c r="L740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M740" t="n">
         <v>1</v>
       </c>
@@ -26323,7 +26633,11 @@
       </c>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr"/>
-      <c r="L741" t="inlineStr"/>
+      <c r="L741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M741" t="n">
         <v>1</v>
       </c>
@@ -26358,7 +26672,11 @@
       </c>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr"/>
-      <c r="L742" t="inlineStr"/>
+      <c r="L742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M742" t="n">
         <v>1</v>
       </c>
@@ -26393,7 +26711,11 @@
       </c>
       <c r="J743" t="inlineStr"/>
       <c r="K743" t="inlineStr"/>
-      <c r="L743" t="inlineStr"/>
+      <c r="L743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M743" t="n">
         <v>1</v>
       </c>
@@ -26428,7 +26750,11 @@
       </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr"/>
-      <c r="L744" t="inlineStr"/>
+      <c r="L744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M744" t="n">
         <v>1</v>
       </c>
@@ -26463,7 +26789,11 @@
       </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr"/>
-      <c r="L745" t="inlineStr"/>
+      <c r="L745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M745" t="n">
         <v>1</v>
       </c>
@@ -26498,7 +26828,11 @@
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
-      <c r="L746" t="inlineStr"/>
+      <c r="L746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M746" t="n">
         <v>1</v>
       </c>
@@ -26533,7 +26867,11 @@
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
-      <c r="L747" t="inlineStr"/>
+      <c r="L747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M747" t="n">
         <v>1</v>
       </c>
@@ -26568,7 +26906,11 @@
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
-      <c r="L748" t="inlineStr"/>
+      <c r="L748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M748" t="n">
         <v>1</v>
       </c>
@@ -26603,7 +26945,11 @@
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
-      <c r="L749" t="inlineStr"/>
+      <c r="L749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M749" t="n">
         <v>1</v>
       </c>
@@ -26638,7 +26984,11 @@
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
-      <c r="L750" t="inlineStr"/>
+      <c r="L750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M750" t="n">
         <v>1</v>
       </c>
@@ -26673,7 +27023,11 @@
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
-      <c r="L751" t="inlineStr"/>
+      <c r="L751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M751" t="n">
         <v>1</v>
       </c>
@@ -26708,7 +27062,11 @@
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
-      <c r="L752" t="inlineStr"/>
+      <c r="L752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M752" t="n">
         <v>1</v>
       </c>
@@ -26743,7 +27101,11 @@
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
-      <c r="L753" t="inlineStr"/>
+      <c r="L753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M753" t="n">
         <v>1</v>
       </c>
@@ -26778,7 +27140,11 @@
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
-      <c r="L754" t="inlineStr"/>
+      <c r="L754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M754" t="n">
         <v>1</v>
       </c>
@@ -26813,7 +27179,11 @@
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M755" t="n">
         <v>1</v>
       </c>
@@ -26848,7 +27218,11 @@
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
-      <c r="L756" t="inlineStr"/>
+      <c r="L756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M756" t="n">
         <v>1</v>
       </c>
@@ -26883,7 +27257,11 @@
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
-      <c r="L757" t="inlineStr"/>
+      <c r="L757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M757" t="n">
         <v>1</v>
       </c>
@@ -26918,7 +27296,11 @@
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
-      <c r="L758" t="inlineStr"/>
+      <c r="L758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M758" t="n">
         <v>1</v>
       </c>
@@ -26953,7 +27335,11 @@
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
-      <c r="L759" t="inlineStr"/>
+      <c r="L759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M759" t="n">
         <v>1</v>
       </c>
@@ -26988,7 +27374,11 @@
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
-      <c r="L760" t="inlineStr"/>
+      <c r="L760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M760" t="n">
         <v>1</v>
       </c>
@@ -27023,7 +27413,11 @@
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
-      <c r="L761" t="inlineStr"/>
+      <c r="L761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M761" t="n">
         <v>1</v>
       </c>
@@ -27058,7 +27452,11 @@
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
-      <c r="L762" t="inlineStr"/>
+      <c r="L762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M762" t="n">
         <v>1</v>
       </c>
@@ -27093,7 +27491,11 @@
       </c>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr"/>
-      <c r="L763" t="inlineStr"/>
+      <c r="L763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M763" t="n">
         <v>1</v>
       </c>
@@ -27128,7 +27530,11 @@
       </c>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr"/>
-      <c r="L764" t="inlineStr"/>
+      <c r="L764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M764" t="n">
         <v>1</v>
       </c>
@@ -27163,7 +27569,11 @@
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>
-      <c r="L765" t="inlineStr"/>
+      <c r="L765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M765" t="n">
         <v>1</v>
       </c>
@@ -27198,7 +27608,11 @@
       </c>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr"/>
-      <c r="L766" t="inlineStr"/>
+      <c r="L766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M766" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +27647,11 @@
       </c>
       <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr"/>
-      <c r="L767" t="inlineStr"/>
+      <c r="L767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M767" t="n">
         <v>1</v>
       </c>
@@ -27268,7 +27686,11 @@
       </c>
       <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr"/>
-      <c r="L768" t="inlineStr"/>
+      <c r="L768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M768" t="n">
         <v>1</v>
       </c>
@@ -27303,7 +27725,11 @@
       </c>
       <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr"/>
-      <c r="L769" t="inlineStr"/>
+      <c r="L769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M769" t="n">
         <v>1</v>
       </c>
@@ -27338,7 +27764,11 @@
       </c>
       <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr"/>
-      <c r="L770" t="inlineStr"/>
+      <c r="L770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M770" t="n">
         <v>1</v>
       </c>
@@ -27366,18 +27796,16 @@
         <v>173.25</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I771" t="n">
         <v>0</v>
       </c>
-      <c r="J771" t="n">
-        <v>170</v>
-      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr"/>
       <c r="L771" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M771" t="n">
@@ -27407,14 +27835,12 @@
         <v>173.1166666666667</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I772" t="n">
         <v>0</v>
       </c>
-      <c r="J772" t="n">
-        <v>168</v>
-      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr"/>
       <c r="L772" t="inlineStr">
         <is>
@@ -27448,14 +27874,12 @@
         <v>173</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I773" t="n">
         <v>0</v>
       </c>
-      <c r="J773" t="n">
-        <v>168</v>
-      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr"/>
       <c r="L773" t="inlineStr">
         <is>
@@ -27489,14 +27913,12 @@
         <v>172.9</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I774" t="n">
         <v>0</v>
       </c>
-      <c r="J774" t="n">
-        <v>170</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr"/>
       <c r="L774" t="inlineStr">
         <is>
@@ -27530,14 +27952,12 @@
         <v>172.8</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I775" t="n">
         <v>0</v>
       </c>
-      <c r="J775" t="n">
-        <v>169</v>
-      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr"/>
       <c r="L775" t="inlineStr">
         <is>
@@ -27571,14 +27991,12 @@
         <v>172.7</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I776" t="n">
         <v>0</v>
       </c>
-      <c r="J776" t="n">
-        <v>169</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr"/>
       <c r="L776" t="inlineStr">
         <is>
@@ -27612,14 +28030,12 @@
         <v>172.5666666666667</v>
       </c>
       <c r="H777" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I777" t="n">
         <v>0</v>
       </c>
-      <c r="J777" t="n">
-        <v>169</v>
-      </c>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr"/>
       <c r="L777" t="inlineStr">
         <is>
@@ -27653,14 +28069,12 @@
         <v>172.4333333333333</v>
       </c>
       <c r="H778" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I778" t="n">
         <v>0</v>
       </c>
-      <c r="J778" t="n">
-        <v>168</v>
-      </c>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr"/>
       <c r="L778" t="inlineStr">
         <is>
@@ -27694,14 +28108,12 @@
         <v>172.3166666666667</v>
       </c>
       <c r="H779" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I779" t="n">
         <v>0</v>
       </c>
-      <c r="J779" t="n">
-        <v>168</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr"/>
       <c r="L779" t="inlineStr">
         <is>
@@ -27735,14 +28147,12 @@
         <v>172.1833333333333</v>
       </c>
       <c r="H780" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I780" t="n">
         <v>0</v>
       </c>
-      <c r="J780" t="n">
-        <v>169</v>
-      </c>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr"/>
       <c r="L780" t="inlineStr">
         <is>
@@ -27776,14 +28186,12 @@
         <v>172.0333333333333</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I781" t="n">
         <v>0</v>
       </c>
-      <c r="J781" t="n">
-        <v>168</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="inlineStr">
         <is>
@@ -27817,14 +28225,12 @@
         <v>171.8833333333333</v>
       </c>
       <c r="H782" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I782" t="n">
         <v>0</v>
       </c>
-      <c r="J782" t="n">
-        <v>168</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr"/>
       <c r="L782" t="inlineStr">
         <is>
@@ -27858,14 +28264,12 @@
         <v>171.7166666666667</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I783" t="n">
         <v>0</v>
       </c>
-      <c r="J783" t="n">
-        <v>168</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr"/>
       <c r="L783" t="inlineStr">
         <is>
@@ -27899,14 +28303,12 @@
         <v>171.5833333333333</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I784" t="n">
         <v>0</v>
       </c>
-      <c r="J784" t="n">
-        <v>168</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="inlineStr">
         <is>
@@ -27940,14 +28342,12 @@
         <v>171.45</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I785" t="n">
         <v>0</v>
       </c>
-      <c r="J785" t="n">
-        <v>168</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr"/>
       <c r="L785" t="inlineStr">
         <is>
@@ -27981,14 +28381,12 @@
         <v>171.3833333333333</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I786" t="n">
         <v>0</v>
       </c>
-      <c r="J786" t="n">
-        <v>168</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr"/>
       <c r="L786" t="inlineStr">
         <is>
@@ -28022,14 +28420,12 @@
         <v>171.2833333333333</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I787" t="n">
         <v>0</v>
       </c>
-      <c r="J787" t="n">
-        <v>169</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="inlineStr">
         <is>
@@ -28063,14 +28459,12 @@
         <v>171.1833333333333</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I788" t="n">
         <v>0</v>
       </c>
-      <c r="J788" t="n">
-        <v>169</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr"/>
       <c r="L788" t="inlineStr">
         <is>
@@ -28104,14 +28498,12 @@
         <v>171.1166666666667</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="n">
         <v>0</v>
       </c>
-      <c r="J789" t="n">
-        <v>168</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr"/>
       <c r="L789" t="inlineStr">
         <is>
@@ -28145,14 +28537,12 @@
         <v>171.0333333333333</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I790" t="n">
         <v>0</v>
       </c>
-      <c r="J790" t="n">
-        <v>169</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr"/>
       <c r="L790" t="inlineStr">
         <is>
@@ -28186,14 +28576,12 @@
         <v>170.9333333333333</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I791" t="n">
         <v>0</v>
       </c>
-      <c r="J791" t="n">
-        <v>169</v>
-      </c>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr"/>
       <c r="L791" t="inlineStr">
         <is>
@@ -28227,14 +28615,12 @@
         <v>170.85</v>
       </c>
       <c r="H792" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I792" t="n">
         <v>0</v>
       </c>
-      <c r="J792" t="n">
-        <v>169</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr"/>
       <c r="L792" t="inlineStr">
         <is>
@@ -28268,14 +28654,12 @@
         <v>170.7666666666667</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="n">
         <v>0</v>
       </c>
-      <c r="J793" t="n">
-        <v>168</v>
-      </c>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr"/>
       <c r="L793" t="inlineStr">
         <is>
@@ -28309,14 +28693,12 @@
         <v>170.7</v>
       </c>
       <c r="H794" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I794" t="n">
         <v>0</v>
       </c>
-      <c r="J794" t="n">
-        <v>169</v>
-      </c>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr"/>
       <c r="L794" t="inlineStr">
         <is>
@@ -28350,14 +28732,12 @@
         <v>170.65</v>
       </c>
       <c r="H795" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I795" t="n">
         <v>0</v>
       </c>
-      <c r="J795" t="n">
-        <v>170</v>
-      </c>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr"/>
       <c r="L795" t="inlineStr">
         <is>
@@ -28391,14 +28771,12 @@
         <v>170.6</v>
       </c>
       <c r="H796" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I796" t="n">
         <v>0</v>
       </c>
-      <c r="J796" t="n">
-        <v>171</v>
-      </c>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr"/>
       <c r="L796" t="inlineStr">
         <is>
@@ -28432,14 +28810,12 @@
         <v>170.5833333333333</v>
       </c>
       <c r="H797" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I797" t="n">
         <v>0</v>
       </c>
-      <c r="J797" t="n">
-        <v>171</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr"/>
       <c r="L797" t="inlineStr">
         <is>
@@ -28473,14 +28849,12 @@
         <v>170.55</v>
       </c>
       <c r="H798" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I798" t="n">
         <v>0</v>
       </c>
-      <c r="J798" t="n">
-        <v>172</v>
-      </c>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr"/>
       <c r="L798" t="inlineStr">
         <is>
@@ -28514,14 +28888,12 @@
         <v>170.5166666666667</v>
       </c>
       <c r="H799" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I799" t="n">
         <v>0</v>
       </c>
-      <c r="J799" t="n">
-        <v>172</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr"/>
       <c r="L799" t="inlineStr">
         <is>
@@ -28555,14 +28927,12 @@
         <v>170.4666666666667</v>
       </c>
       <c r="H800" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I800" t="n">
         <v>0</v>
       </c>
-      <c r="J800" t="n">
-        <v>172</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr"/>
       <c r="L800" t="inlineStr">
         <is>
@@ -28596,14 +28966,12 @@
         <v>170.4333333333333</v>
       </c>
       <c r="H801" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I801" t="n">
         <v>0</v>
       </c>
-      <c r="J801" t="n">
-        <v>172</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr"/>
       <c r="L801" t="inlineStr">
         <is>
@@ -28637,14 +29005,12 @@
         <v>170.4</v>
       </c>
       <c r="H802" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I802" t="n">
         <v>0</v>
       </c>
-      <c r="J802" t="n">
-        <v>171</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr"/>
       <c r="L802" t="inlineStr">
         <is>
@@ -28678,14 +29044,12 @@
         <v>170.3833333333333</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I803" t="n">
         <v>0</v>
       </c>
-      <c r="J803" t="n">
-        <v>171</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr"/>
       <c r="L803" t="inlineStr">
         <is>
@@ -28719,14 +29083,12 @@
         <v>170.3833333333333</v>
       </c>
       <c r="H804" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I804" t="n">
         <v>0</v>
       </c>
-      <c r="J804" t="n">
-        <v>171</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr"/>
       <c r="L804" t="inlineStr">
         <is>

--- a/BackTest/2019-11-17 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-17 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6094,7 +6094,7 @@
         <v>310740.6930216913</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>718625.3635216914</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>718625.3635216914</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>797699.434662717</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>899543.179062717</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1173145.926001331</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1021417.409638413</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>994689.6847384127</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>991452.8869110016</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1045831.683711002</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>996950.9981194594</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>750114.7897194594</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>743405.5821194593</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>692620.6152194593</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>661740.4945194593</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>678286.9298194593</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>678286.9298194593</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>665118.8078194594</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>671672.1305194594</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>698748.4689194594</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>690942.6410194593</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>647267.6532194593</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>547200.0732194594</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>576583.3794194594</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>551244.5700194594</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>491608.0133194593</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>491608.0133194593</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>309236.8584194593</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>309236.8584194593</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>303637.2688194593</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>309455.7835194593</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>309455.7835194593</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>352225.2460194593</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>349409.7313194593</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>348713.2686194593</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>358872.7757194593</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>358872.7757194593</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>349587.4977749219</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>343004.6146749219</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>290168.747074922</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -27115,10 +27115,14 @@
         <v>-66260.56360819215</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>172</v>
+      </c>
+      <c r="J810" t="n">
+        <v>172</v>
+      </c>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
@@ -27151,8 +27155,14 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>172</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27184,8 +27194,14 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>172</v>
+      </c>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27643,11 +27659,17 @@
         <v>-95794.76370819216</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
-      </c>
-      <c r="I826" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>170</v>
+      </c>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +27698,17 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
-      </c>
-      <c r="I827" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>171</v>
+      </c>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27737,17 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>170</v>
+      </c>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27742,11 +27776,17 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I829" t="n">
+        <v>170</v>
+      </c>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +27815,17 @@
         <v>-111062.2302081922</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I830" t="n">
+        <v>170</v>
+      </c>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +27854,17 @@
         <v>-139178.7971081921</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I831" t="n">
+        <v>170</v>
+      </c>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27841,11 +27893,17 @@
         <v>-111625.9885081921</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>168</v>
+      </c>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27874,11 +27932,17 @@
         <v>-111614.9885081921</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I833" t="n">
+        <v>169</v>
+      </c>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27907,11 +27971,17 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I834" t="n">
+        <v>170</v>
+      </c>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27940,11 +28010,17 @@
         <v>-129861.1304081921</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I835" t="n">
+        <v>169</v>
+      </c>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,7 +28049,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>169</v>
@@ -27981,7 +28057,7 @@
       <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L836" t="n">
@@ -28012,7 +28088,7 @@
         <v>-131994.3512081922</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>168</v>
@@ -28051,7 +28127,7 @@
         <v>-130292.6440081921</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>168</v>
@@ -28090,7 +28166,7 @@
         <v>-130292.6440081921</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>169</v>
@@ -28129,7 +28205,7 @@
         <v>-131885.0788081921</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>169</v>
@@ -28168,7 +28244,7 @@
         <v>-131885.0788081921</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>168</v>
@@ -28207,7 +28283,7 @@
         <v>-138200.2179081921</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>168</v>
@@ -28246,7 +28322,7 @@
         <v>-133993.0671081921</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>167</v>
@@ -28285,7 +28361,7 @@
         <v>-133993.0671081921</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>168</v>
@@ -28324,7 +28400,7 @@
         <v>-133993.0671081921</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>168</v>
@@ -28363,7 +28439,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>168</v>
@@ -28402,7 +28478,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>169</v>
@@ -28441,7 +28517,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>169</v>
@@ -28480,7 +28556,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H849" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I849" t="n">
         <v>169</v>
@@ -28519,7 +28595,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I850" t="n">
         <v>169</v>
@@ -28558,7 +28634,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I851" t="n">
         <v>169</v>
@@ -28597,7 +28673,7 @@
         <v>-132957.5981081921</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I852" t="n">
         <v>169</v>
@@ -28636,7 +28712,7 @@
         <v>-120358.3859081921</v>
       </c>
       <c r="H853" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I853" t="n">
         <v>169</v>
@@ -28675,7 +28751,7 @@
         <v>-116456.6166081921</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I854" t="n">
         <v>170</v>
@@ -28714,7 +28790,7 @@
         <v>-116456.6166081921</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I855" t="n">
         <v>171</v>
@@ -28753,7 +28829,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H856" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I856" t="n">
         <v>171</v>
@@ -28792,7 +28868,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I857" t="n">
         <v>172</v>
@@ -28831,7 +28907,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I858" t="n">
         <v>172</v>
@@ -28870,7 +28946,7 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I859" t="n">
         <v>172</v>
@@ -28909,11 +28985,9 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
-      </c>
-      <c r="I860" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
@@ -28948,11 +29022,9 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
-      </c>
-      <c r="I861" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
@@ -28987,11 +29059,9 @@
         <v>-106849.0562081921</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
-      </c>
-      <c r="I862" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
@@ -29026,11 +29096,9 @@
         <v>-106849.0562081921</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
-      </c>
-      <c r="I863" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
@@ -29102,11 +29170,9 @@
         <v>-108124.6406081921</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
-      </c>
-      <c r="I865" t="n">
-        <v>171</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
@@ -29141,11 +29207,9 @@
         <v>-107924.6406081921</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
-      </c>
-      <c r="I866" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
@@ -29180,9 +29244,11 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>171</v>
+      </c>
       <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
@@ -29217,9 +29283,11 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>170</v>
+      </c>
       <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
@@ -29417,6 +29485,6 @@
       <c r="M873" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-17 BackTest CTXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-57953.85178700458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-53457.65618700458</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11043.38628700458</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>533.0438129954218</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>49444.97651299542</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>86402.82451299543</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>84439.27451299543</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>118498.5093129954</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>118493.1302129954</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>113011.3158129954</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>113017.3158129954</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>111517.3158129954</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>73532.38731299543</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>73097.18291299543</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>86920.34811299542</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>124623.5052216911</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>138031.2038216911</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>129580.3850216911</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>136413.9753216911</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>131328.1569216911</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>138947.4916216911</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>147876.1637216911</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>144349.8530216911</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>143725.5697216911</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>142274.5435216911</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>162863.7604216911</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>172135.0676216911</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>171499.0687216911</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>166348.5086216911</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>190071.5967216911</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>182134.8201216911</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>183715.8201216911</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>183712.8201216911</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>226742.4481216912</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>222837.2086216912</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>222250.3091216912</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>248563.6404216912</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>750114.7897194594</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>743405.5821194593</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>692620.6152194593</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>661740.4945194593</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>678286.9298194593</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>678286.9298194593</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>665118.8078194594</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>671672.1305194594</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>698748.4689194594</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>690942.6410194593</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>647267.6532194593</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>576583.3794194594</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>589416.2388194593</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>551244.5700194594</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>491608.0133194593</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>491608.0133194593</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>309236.8584194593</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>309236.8584194593</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>303637.2688194593</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>309455.7835194593</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>309455.7835194593</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>352225.2460194593</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>349409.7313194593</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>350395.2948194593</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>348713.2686194593</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>358872.7757194593</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>358872.7757194593</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>321196.0864194593</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>325071.2459352487</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>317058.2204352487</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>276907.7877352487</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>276575.7542352487</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>348628.7502352487</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>348603.1630352487</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>348066.8989352487</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>305739.9541352486</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>316571.0234352486</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>317666.0985352486</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>316604.2759352486</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>311806.5548352486</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>314521.1190947081</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>313439.3223947081</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>296918.268174922</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>302262.300874922</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>302558.1128749219</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>32490.32757492188</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>33453.32757492188</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>32953.32757492188</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>116344.76529412</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27115,14 +27115,10 @@
         <v>-66260.56360819215</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>172</v>
-      </c>
-      <c r="J810" t="n">
-        <v>172</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
@@ -27155,14 +27151,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>172</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27194,14 +27184,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>172</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27626,10 +27610,14 @@
         <v>-108985.3055081922</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
-      </c>
-      <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>170</v>
+      </c>
+      <c r="J825" t="n">
+        <v>170</v>
+      </c>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
@@ -27664,7 +27652,9 @@
       <c r="I826" t="n">
         <v>170</v>
       </c>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>170</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -27703,7 +27693,9 @@
       <c r="I827" t="n">
         <v>171</v>
       </c>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>170</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27742,7 +27734,9 @@
       <c r="I828" t="n">
         <v>170</v>
       </c>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>170</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27781,7 +27775,9 @@
       <c r="I829" t="n">
         <v>170</v>
       </c>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>170</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27820,7 +27816,9 @@
       <c r="I830" t="n">
         <v>170</v>
       </c>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>170</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27859,7 +27857,9 @@
       <c r="I831" t="n">
         <v>170</v>
       </c>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>170</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27898,7 +27898,9 @@
       <c r="I832" t="n">
         <v>168</v>
       </c>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>170</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27937,7 +27939,9 @@
       <c r="I833" t="n">
         <v>169</v>
       </c>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>170</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27976,7 +27980,9 @@
       <c r="I834" t="n">
         <v>170</v>
       </c>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>170</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28015,7 +28021,9 @@
       <c r="I835" t="n">
         <v>169</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>170</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28054,7 +28062,9 @@
       <c r="I836" t="n">
         <v>169</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>170</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28093,7 +28103,9 @@
       <c r="I837" t="n">
         <v>168</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>170</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28132,7 +28144,9 @@
       <c r="I838" t="n">
         <v>168</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>170</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28171,7 +28185,9 @@
       <c r="I839" t="n">
         <v>169</v>
       </c>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>170</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28210,7 +28226,9 @@
       <c r="I840" t="n">
         <v>169</v>
       </c>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>170</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28249,7 +28267,9 @@
       <c r="I841" t="n">
         <v>168</v>
       </c>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>170</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28288,7 +28308,9 @@
       <c r="I842" t="n">
         <v>168</v>
       </c>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>170</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28327,7 +28349,9 @@
       <c r="I843" t="n">
         <v>167</v>
       </c>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>170</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28366,7 +28390,9 @@
       <c r="I844" t="n">
         <v>168</v>
       </c>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>170</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28405,7 +28431,9 @@
       <c r="I845" t="n">
         <v>168</v>
       </c>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>170</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28444,7 +28472,9 @@
       <c r="I846" t="n">
         <v>168</v>
       </c>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>170</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28483,7 +28513,9 @@
       <c r="I847" t="n">
         <v>169</v>
       </c>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>170</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28522,7 +28554,9 @@
       <c r="I848" t="n">
         <v>169</v>
       </c>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>170</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28561,7 +28595,9 @@
       <c r="I849" t="n">
         <v>169</v>
       </c>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>170</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28600,7 +28636,9 @@
       <c r="I850" t="n">
         <v>169</v>
       </c>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>170</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28639,7 +28677,9 @@
       <c r="I851" t="n">
         <v>169</v>
       </c>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>170</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28678,7 +28718,9 @@
       <c r="I852" t="n">
         <v>169</v>
       </c>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>170</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28717,7 +28759,9 @@
       <c r="I853" t="n">
         <v>169</v>
       </c>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>170</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28756,7 +28800,9 @@
       <c r="I854" t="n">
         <v>170</v>
       </c>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>170</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28795,7 +28841,9 @@
       <c r="I855" t="n">
         <v>171</v>
       </c>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>170</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28834,7 +28882,9 @@
       <c r="I856" t="n">
         <v>171</v>
       </c>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>170</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28873,7 +28923,9 @@
       <c r="I857" t="n">
         <v>172</v>
       </c>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>170</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28912,7 +28964,9 @@
       <c r="I858" t="n">
         <v>172</v>
       </c>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>170</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28946,12 +29000,12 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>172</v>
-      </c>
-      <c r="J859" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>170</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28988,7 +29042,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>170</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29025,7 +29081,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>170</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29062,7 +29120,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>170</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29099,7 +29159,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>170</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29136,7 +29198,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>170</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29170,10 +29234,14 @@
         <v>-108124.6406081921</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>171</v>
+      </c>
+      <c r="J865" t="n">
+        <v>170</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29207,10 +29275,14 @@
         <v>-107924.6406081921</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>170</v>
+      </c>
+      <c r="J866" t="n">
+        <v>170</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29249,7 +29321,9 @@
       <c r="I867" t="n">
         <v>171</v>
       </c>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>170</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29288,7 +29362,9 @@
       <c r="I868" t="n">
         <v>170</v>
       </c>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>170</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29322,10 +29398,14 @@
         <v>-109806.2594081921</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>170</v>
+      </c>
+      <c r="J869" t="n">
+        <v>170</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29359,10 +29439,14 @@
         <v>-132718.0336081921</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>171</v>
+      </c>
+      <c r="J870" t="n">
+        <v>170</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29396,10 +29480,14 @@
         <v>-127971.5747081921</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>168</v>
+      </c>
+      <c r="J871" t="n">
+        <v>170</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29433,10 +29521,14 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>169</v>
+      </c>
+      <c r="J872" t="n">
+        <v>170</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29470,10 +29562,14 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>168</v>
+      </c>
+      <c r="J873" t="n">
+        <v>170</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29485,6 +29581,6 @@
       <c r="M873" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-17 BackTest CTXC.xlsx
+++ b/BackTest/2019-11-17 BackTest CTXC.xlsx
@@ -451,7 +451,7 @@
         <v>-57953.85178700458</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-57957.65618700458</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-53457.65618700458</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-40142.28898700458</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-38945.38628700458</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-11043.38628700458</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>533.0438129954218</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>49444.97651299542</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>92229.09591299543</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>86402.82451299543</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>84439.27451299543</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>118498.5093129954</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>118493.1302129954</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>113011.3158129954</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>113017.3158129954</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>111517.3158129954</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>100217.1696129954</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>73532.38731299543</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>73097.18291299543</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>87695.27501299542</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>86920.34811299542</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>124623.5052216911</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>139650.0734216911</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>138031.2038216911</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>137813.5212216911</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>129580.3850216911</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>136413.9753216911</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>131328.1569216911</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>138947.4916216911</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>147876.1637216911</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>147858.1637216911</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>144349.8530216911</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>144596.9881216911</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>143725.5697216911</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>142274.5435216911</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>162863.7604216911</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>172135.0676216911</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>171499.0687216911</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>166348.5086216911</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>170698.5086216911</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>190071.5967216911</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>186642.6827216911</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>182134.8201216911</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>183134.8201216911</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>183715.8201216911</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>183712.8201216911</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>186444.4546216911</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>186335.6546216912</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>226120.5079216912</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>226742.4481216912</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>222837.2086216912</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>223031.5245216912</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>222250.3091216912</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>239755.5477216912</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>249867.1450216912</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>248563.6404216912</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>254386.2901216912</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>299121.0680216912</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>311297.7533216912</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1021417.409638413</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>994689.6847384127</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>969286.0703384128</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>991452.8869110016</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>1045831.683711002</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>996950.9981194594</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>979247.8534194594</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>866881.7868194594</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>750114.7897194594</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>859116.5378194593</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>743405.5821194593</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>692620.6152194593</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>661740.4945194593</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>698748.4689194594</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>690942.6410194593</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>690939.4410194594</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>647267.6532194593</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>539085.7311194594</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>547200.0732194594</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>579432.1857194594</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>268194.2394352488</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>296422.7152352487</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>325071.2459352487</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>330314.2459352487</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>317058.2204352487</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>275957.7877352487</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>276907.7877352487</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>276575.7542352487</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>348628.7502352487</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>348603.1630352487</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>348066.8989352487</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>336406.8989352487</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>336476.9217352486</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>334476.9217352486</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>305739.9541352486</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>316571.0234352486</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>317666.0985352486</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>318381.6851352486</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>316604.2759352486</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>313300.1369352486</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>311806.5548352486</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>313280.5809352486</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>313184.6596352486</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>314521.1190947081</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>313439.3223947081</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>314730.512874922</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>293091.874774922</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>293202.284074922</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>297202.284074922</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>296918.268174922</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>302262.300874922</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>302558.1128749219</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>32490.32757492188</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>33453.32757492188</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>32953.32757492188</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -22957,7 +22957,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -22990,7 +22990,7 @@
         <v>121798.29359412</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23023,7 +23023,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23056,7 +23056,7 @@
         <v>112349.67749412</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23089,7 +23089,7 @@
         <v>116344.76529412</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -27610,14 +27610,10 @@
         <v>-108985.3055081922</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>170</v>
-      </c>
-      <c r="J825" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
@@ -27647,511 +27643,413 @@
         <v>-95794.76370819216</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
         <v>170</v>
       </c>
-      <c r="J826" t="n">
+      <c r="C827" t="n">
         <v>170</v>
       </c>
-      <c r="K826" t="inlineStr">
+      <c r="D827" t="n">
+        <v>170</v>
+      </c>
+      <c r="E827" t="n">
+        <v>170</v>
+      </c>
+      <c r="F827" t="n">
+        <v>15267.4665</v>
+      </c>
+      <c r="G827" t="n">
+        <v>-111062.2302081922</v>
+      </c>
+      <c r="H827" t="n">
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>170</v>
+      </c>
+      <c r="C828" t="n">
+        <v>170</v>
+      </c>
+      <c r="D828" t="n">
+        <v>170</v>
+      </c>
+      <c r="E828" t="n">
+        <v>170</v>
+      </c>
+      <c r="F828" t="n">
+        <v>5363.8222</v>
+      </c>
+      <c r="G828" t="n">
+        <v>-111062.2302081922</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>170</v>
+      </c>
+      <c r="C829" t="n">
+        <v>170</v>
+      </c>
+      <c r="D829" t="n">
+        <v>170</v>
+      </c>
+      <c r="E829" t="n">
+        <v>170</v>
+      </c>
+      <c r="F829" t="n">
+        <v>140</v>
+      </c>
+      <c r="G829" t="n">
+        <v>-111062.2302081922</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>170</v>
+      </c>
+      <c r="C830" t="n">
+        <v>170</v>
+      </c>
+      <c r="D830" t="n">
+        <v>170</v>
+      </c>
+      <c r="E830" t="n">
+        <v>168</v>
+      </c>
+      <c r="F830" t="n">
+        <v>44184.5104</v>
+      </c>
+      <c r="G830" t="n">
+        <v>-111062.2302081922</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>168</v>
+      </c>
+      <c r="C831" t="n">
+        <v>168</v>
+      </c>
+      <c r="D831" t="n">
+        <v>168</v>
+      </c>
+      <c r="E831" t="n">
+        <v>168</v>
+      </c>
+      <c r="F831" t="n">
+        <v>28116.5669</v>
+      </c>
+      <c r="G831" t="n">
+        <v>-139178.7971081921</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>168</v>
+      </c>
+      <c r="C832" t="n">
+        <v>169</v>
+      </c>
+      <c r="D832" t="n">
+        <v>170</v>
+      </c>
+      <c r="E832" t="n">
+        <v>168</v>
+      </c>
+      <c r="F832" t="n">
+        <v>27552.8086</v>
+      </c>
+      <c r="G832" t="n">
+        <v>-111625.9885081921</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>170</v>
+      </c>
+      <c r="C833" t="n">
+        <v>170</v>
+      </c>
+      <c r="D833" t="n">
+        <v>170</v>
+      </c>
+      <c r="E833" t="n">
+        <v>170</v>
+      </c>
+      <c r="F833" t="n">
+        <v>11</v>
+      </c>
+      <c r="G833" t="n">
+        <v>-111614.9885081921</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>169</v>
+      </c>
+      <c r="C834" t="n">
+        <v>169</v>
+      </c>
+      <c r="D834" t="n">
+        <v>169</v>
+      </c>
+      <c r="E834" t="n">
+        <v>169</v>
+      </c>
+      <c r="F834" t="n">
+        <v>18246.1419</v>
+      </c>
+      <c r="G834" t="n">
+        <v>-129861.1304081921</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>169</v>
+      </c>
+      <c r="C835" t="n">
+        <v>169</v>
+      </c>
+      <c r="D835" t="n">
+        <v>169</v>
+      </c>
+      <c r="E835" t="n">
+        <v>169</v>
+      </c>
+      <c r="F835" t="n">
+        <v>10792.297</v>
+      </c>
+      <c r="G835" t="n">
+        <v>-129861.1304081921</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>169</v>
+      </c>
+      <c r="C836" t="n">
+        <v>168</v>
+      </c>
+      <c r="D836" t="n">
+        <v>169</v>
+      </c>
+      <c r="E836" t="n">
+        <v>168</v>
+      </c>
+      <c r="F836" t="n">
+        <v>2133.2208</v>
+      </c>
+      <c r="G836" t="n">
+        <v>-131994.3512081922</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>168</v>
+      </c>
+      <c r="C837" t="n">
+        <v>168</v>
+      </c>
+      <c r="D837" t="n">
+        <v>168</v>
+      </c>
+      <c r="E837" t="n">
+        <v>168</v>
+      </c>
+      <c r="F837" t="n">
+        <v>490.7841</v>
+      </c>
+      <c r="G837" t="n">
+        <v>-131994.3512081922</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>168</v>
+      </c>
+      <c r="C838" t="n">
+        <v>169</v>
+      </c>
+      <c r="D838" t="n">
+        <v>169</v>
+      </c>
+      <c r="E838" t="n">
+        <v>168</v>
+      </c>
+      <c r="F838" t="n">
+        <v>1701.7072</v>
+      </c>
+      <c r="G838" t="n">
+        <v>-130292.6440081921</v>
+      </c>
+      <c r="H838" t="n">
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>168</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>170</v>
-      </c>
-      <c r="C827" t="n">
-        <v>170</v>
-      </c>
-      <c r="D827" t="n">
-        <v>170</v>
-      </c>
-      <c r="E827" t="n">
-        <v>170</v>
-      </c>
-      <c r="F827" t="n">
-        <v>15267.4665</v>
-      </c>
-      <c r="G827" t="n">
-        <v>-111062.2302081922</v>
-      </c>
-      <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>171</v>
-      </c>
-      <c r="J827" t="n">
-        <v>170</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>170</v>
-      </c>
-      <c r="C828" t="n">
-        <v>170</v>
-      </c>
-      <c r="D828" t="n">
-        <v>170</v>
-      </c>
-      <c r="E828" t="n">
-        <v>170</v>
-      </c>
-      <c r="F828" t="n">
-        <v>5363.8222</v>
-      </c>
-      <c r="G828" t="n">
-        <v>-111062.2302081922</v>
-      </c>
-      <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>170</v>
-      </c>
-      <c r="J828" t="n">
-        <v>170</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>170</v>
-      </c>
-      <c r="C829" t="n">
-        <v>170</v>
-      </c>
-      <c r="D829" t="n">
-        <v>170</v>
-      </c>
-      <c r="E829" t="n">
-        <v>170</v>
-      </c>
-      <c r="F829" t="n">
-        <v>140</v>
-      </c>
-      <c r="G829" t="n">
-        <v>-111062.2302081922</v>
-      </c>
-      <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>170</v>
-      </c>
-      <c r="J829" t="n">
-        <v>170</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>170</v>
-      </c>
-      <c r="C830" t="n">
-        <v>170</v>
-      </c>
-      <c r="D830" t="n">
-        <v>170</v>
-      </c>
-      <c r="E830" t="n">
-        <v>168</v>
-      </c>
-      <c r="F830" t="n">
-        <v>44184.5104</v>
-      </c>
-      <c r="G830" t="n">
-        <v>-111062.2302081922</v>
-      </c>
-      <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>170</v>
-      </c>
-      <c r="J830" t="n">
-        <v>170</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>168</v>
-      </c>
-      <c r="C831" t="n">
-        <v>168</v>
-      </c>
-      <c r="D831" t="n">
-        <v>168</v>
-      </c>
-      <c r="E831" t="n">
-        <v>168</v>
-      </c>
-      <c r="F831" t="n">
-        <v>28116.5669</v>
-      </c>
-      <c r="G831" t="n">
-        <v>-139178.7971081921</v>
-      </c>
-      <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>170</v>
-      </c>
-      <c r="J831" t="n">
-        <v>170</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>168</v>
-      </c>
-      <c r="C832" t="n">
-        <v>169</v>
-      </c>
-      <c r="D832" t="n">
-        <v>170</v>
-      </c>
-      <c r="E832" t="n">
-        <v>168</v>
-      </c>
-      <c r="F832" t="n">
-        <v>27552.8086</v>
-      </c>
-      <c r="G832" t="n">
-        <v>-111625.9885081921</v>
-      </c>
-      <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>168</v>
-      </c>
-      <c r="J832" t="n">
-        <v>170</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>170</v>
-      </c>
-      <c r="C833" t="n">
-        <v>170</v>
-      </c>
-      <c r="D833" t="n">
-        <v>170</v>
-      </c>
-      <c r="E833" t="n">
-        <v>170</v>
-      </c>
-      <c r="F833" t="n">
-        <v>11</v>
-      </c>
-      <c r="G833" t="n">
-        <v>-111614.9885081921</v>
-      </c>
-      <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>169</v>
-      </c>
-      <c r="J833" t="n">
-        <v>170</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>169</v>
-      </c>
-      <c r="C834" t="n">
-        <v>169</v>
-      </c>
-      <c r="D834" t="n">
-        <v>169</v>
-      </c>
-      <c r="E834" t="n">
-        <v>169</v>
-      </c>
-      <c r="F834" t="n">
-        <v>18246.1419</v>
-      </c>
-      <c r="G834" t="n">
-        <v>-129861.1304081921</v>
-      </c>
-      <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>170</v>
-      </c>
-      <c r="J834" t="n">
-        <v>170</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>169</v>
-      </c>
-      <c r="C835" t="n">
-        <v>169</v>
-      </c>
-      <c r="D835" t="n">
-        <v>169</v>
-      </c>
-      <c r="E835" t="n">
-        <v>169</v>
-      </c>
-      <c r="F835" t="n">
-        <v>10792.297</v>
-      </c>
-      <c r="G835" t="n">
-        <v>-129861.1304081921</v>
-      </c>
-      <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>169</v>
-      </c>
-      <c r="J835" t="n">
-        <v>170</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>169</v>
-      </c>
-      <c r="C836" t="n">
-        <v>168</v>
-      </c>
-      <c r="D836" t="n">
-        <v>169</v>
-      </c>
-      <c r="E836" t="n">
-        <v>168</v>
-      </c>
-      <c r="F836" t="n">
-        <v>2133.2208</v>
-      </c>
-      <c r="G836" t="n">
-        <v>-131994.3512081922</v>
-      </c>
-      <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>169</v>
-      </c>
-      <c r="J836" t="n">
-        <v>170</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>168</v>
-      </c>
-      <c r="C837" t="n">
-        <v>168</v>
-      </c>
-      <c r="D837" t="n">
-        <v>168</v>
-      </c>
-      <c r="E837" t="n">
-        <v>168</v>
-      </c>
-      <c r="F837" t="n">
-        <v>490.7841</v>
-      </c>
-      <c r="G837" t="n">
-        <v>-131994.3512081922</v>
-      </c>
-      <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>168</v>
-      </c>
-      <c r="J837" t="n">
-        <v>170</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>168</v>
-      </c>
-      <c r="C838" t="n">
-        <v>169</v>
-      </c>
-      <c r="D838" t="n">
-        <v>169</v>
-      </c>
-      <c r="E838" t="n">
-        <v>168</v>
-      </c>
-      <c r="F838" t="n">
-        <v>1701.7072</v>
-      </c>
-      <c r="G838" t="n">
-        <v>-130292.6440081921</v>
-      </c>
-      <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>168</v>
-      </c>
-      <c r="J838" t="n">
-        <v>170</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28185,9 +28083,7 @@
       <c r="I839" t="n">
         <v>169</v>
       </c>
-      <c r="J839" t="n">
-        <v>170</v>
-      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28226,9 +28122,7 @@
       <c r="I840" t="n">
         <v>169</v>
       </c>
-      <c r="J840" t="n">
-        <v>170</v>
-      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28267,9 +28161,7 @@
       <c r="I841" t="n">
         <v>168</v>
       </c>
-      <c r="J841" t="n">
-        <v>170</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28308,9 +28200,7 @@
       <c r="I842" t="n">
         <v>168</v>
       </c>
-      <c r="J842" t="n">
-        <v>170</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28349,9 +28239,7 @@
       <c r="I843" t="n">
         <v>167</v>
       </c>
-      <c r="J843" t="n">
-        <v>170</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28390,9 +28278,7 @@
       <c r="I844" t="n">
         <v>168</v>
       </c>
-      <c r="J844" t="n">
-        <v>170</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28431,9 +28317,7 @@
       <c r="I845" t="n">
         <v>168</v>
       </c>
-      <c r="J845" t="n">
-        <v>170</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28472,9 +28356,7 @@
       <c r="I846" t="n">
         <v>168</v>
       </c>
-      <c r="J846" t="n">
-        <v>170</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28513,9 +28395,7 @@
       <c r="I847" t="n">
         <v>169</v>
       </c>
-      <c r="J847" t="n">
-        <v>170</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28554,9 +28434,7 @@
       <c r="I848" t="n">
         <v>169</v>
       </c>
-      <c r="J848" t="n">
-        <v>170</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28595,9 +28473,7 @@
       <c r="I849" t="n">
         <v>169</v>
       </c>
-      <c r="J849" t="n">
-        <v>170</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28636,9 +28512,7 @@
       <c r="I850" t="n">
         <v>169</v>
       </c>
-      <c r="J850" t="n">
-        <v>170</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28677,9 +28551,7 @@
       <c r="I851" t="n">
         <v>169</v>
       </c>
-      <c r="J851" t="n">
-        <v>170</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28718,9 +28590,7 @@
       <c r="I852" t="n">
         <v>169</v>
       </c>
-      <c r="J852" t="n">
-        <v>170</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28759,9 +28629,7 @@
       <c r="I853" t="n">
         <v>169</v>
       </c>
-      <c r="J853" t="n">
-        <v>170</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28800,9 +28668,7 @@
       <c r="I854" t="n">
         <v>170</v>
       </c>
-      <c r="J854" t="n">
-        <v>170</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28841,9 +28707,7 @@
       <c r="I855" t="n">
         <v>171</v>
       </c>
-      <c r="J855" t="n">
-        <v>170</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28882,9 +28746,7 @@
       <c r="I856" t="n">
         <v>171</v>
       </c>
-      <c r="J856" t="n">
-        <v>170</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28923,9 +28785,7 @@
       <c r="I857" t="n">
         <v>172</v>
       </c>
-      <c r="J857" t="n">
-        <v>170</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28964,9 +28824,7 @@
       <c r="I858" t="n">
         <v>172</v>
       </c>
-      <c r="J858" t="n">
-        <v>170</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29000,12 +28858,12 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>170</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>172</v>
+      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29039,12 +28897,12 @@
         <v>-106784.0517081921</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>170</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>172</v>
+      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29081,9 +28939,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>170</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29120,9 +28976,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>170</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29159,9 +29013,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>170</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29198,9 +29050,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>170</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29234,14 +29084,10 @@
         <v>-108124.6406081921</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>171</v>
-      </c>
-      <c r="J865" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29275,14 +29121,10 @@
         <v>-107924.6406081921</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>170</v>
-      </c>
-      <c r="J866" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29316,14 +29158,10 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>171</v>
-      </c>
-      <c r="J867" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29357,14 +29195,10 @@
         <v>-110637.4835081921</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>170</v>
-      </c>
-      <c r="J868" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29398,14 +29232,10 @@
         <v>-109806.2594081921</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>170</v>
-      </c>
-      <c r="J869" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29439,14 +29269,10 @@
         <v>-132718.0336081921</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>171</v>
-      </c>
-      <c r="J870" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29480,14 +29306,10 @@
         <v>-127971.5747081921</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>168</v>
-      </c>
-      <c r="J871" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29521,14 +29343,10 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>169</v>
-      </c>
-      <c r="J872" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29562,14 +29380,10 @@
         <v>-146205.5626081921</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>168</v>
-      </c>
-      <c r="J873" t="n">
-        <v>170</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
